--- a/paper/计算.xlsx
+++ b/paper/计算.xlsx
@@ -13,16 +13,12 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.0000_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,6 +46,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -123,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -137,7 +148,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -442,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C6:C9"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -473,7 +499,7 @@
         <v>0.83779999999999999</v>
       </c>
       <c r="C2" s="5">
-        <f t="shared" ref="C2:C9" si="0">2*A2*B2/(A2+B2)</f>
+        <f t="shared" ref="C2:C15" si="0">2*A2*B2/(A2+B2)</f>
         <v>0.86839070783738703</v>
       </c>
     </row>
@@ -555,8 +581,69 @@
         <v>0.84468557396449695</v>
       </c>
     </row>
+    <row r="10" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>0.81540000000000001</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.73350000000000004</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" si="0"/>
+        <v>0.77228471818710043</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <v>0.75629999999999997</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0.63470000000000004</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" si="0"/>
+        <v>0.690184917325665</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>0.80059999999999998</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0.73350000000000004</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" si="0"/>
+        <v>0.76558255654781304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="B15" s="9">
+        <v>0.70589999999999997</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" si="0"/>
+        <v>0.74290301362507549</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>